--- a/docs/生产线相关地址汇总2018-5-7.xlsx
+++ b/docs/生产线相关地址汇总2018-5-7.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{78378606-35EC-4494-8213-896DC2DEFDC8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="机械手动作地址" sheetId="1" r:id="rId1"/>
@@ -2159,19 +2160,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2179,7 +2180,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2217,23 +2218,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2275,7 +2284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2307,9 +2316,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2341,6 +2368,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2516,16 +2561,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A124" sqref="A124:B124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="56.125" customWidth="1"/>
+    <col min="2" max="2" width="56.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3485,18 +3530,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A35" sqref="A35:B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="28.125" customWidth="1"/>
-    <col min="3" max="3" width="106.875" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="106.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -3655,7 +3700,7 @@
       <c r="B20" t="s">
         <v>344</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>658</v>
       </c>
     </row>
@@ -4435,16 +4480,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4688,16 +4733,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4883,19 +4928,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="30.625" customWidth="1"/>
-    <col min="4" max="4" width="37.75" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4913,7 +4958,7 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>572</v>
       </c>
       <c r="B2" t="s">
@@ -4927,7 +4972,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>564</v>
       </c>
@@ -4939,7 +4984,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3"/>
+      <c r="A4" s="4"/>
       <c r="C4" t="s">
         <v>624</v>
       </c>
@@ -4948,7 +4993,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="C5" t="s">
         <v>591</v>
       </c>
@@ -4957,42 +5002,42 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>565</v>
       </c>
       <c r="C6" t="s">
         <v>568</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
+      <c r="A7" s="4"/>
       <c r="B7" t="s">
         <v>566</v>
       </c>
       <c r="C7" t="s">
         <v>569</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3"/>
+      <c r="A8" s="4"/>
       <c r="B8" t="s">
         <v>567</v>
       </c>
       <c r="C8" t="s">
         <v>570</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>575</v>
       </c>
       <c r="B10" t="s">
@@ -5006,39 +5051,39 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
       <c r="B11" t="s">
         <v>497</v>
       </c>
       <c r="C11" t="s">
         <v>522</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" t="s">
         <v>498</v>
       </c>
       <c r="C12" t="s">
         <v>523</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>499</v>
       </c>
       <c r="C13" t="s">
         <v>524</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" t="s">
         <v>573</v>
       </c>
@@ -5050,7 +5095,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" t="s">
         <v>574</v>
       </c>
@@ -5062,7 +5107,7 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="C16" t="s">
         <v>610</v>
       </c>
@@ -5071,7 +5116,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="C17" t="s">
         <v>589</v>
       </c>
@@ -5083,7 +5128,7 @@
       <c r="A18" s="1"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>576</v>
       </c>
       <c r="B19" t="s">
@@ -5097,39 +5142,39 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3"/>
+      <c r="A20" s="4"/>
       <c r="B20" t="s">
         <v>502</v>
       </c>
       <c r="C20" t="s">
         <v>525</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="4" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
       <c r="B21" t="s">
         <v>503</v>
       </c>
       <c r="C21" t="s">
         <v>526</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="3"/>
+      <c r="A22" s="4"/>
       <c r="B22" t="s">
         <v>504</v>
       </c>
       <c r="C22" t="s">
         <v>527</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="3"/>
+      <c r="A23" s="4"/>
       <c r="C23" t="s">
         <v>593</v>
       </c>
@@ -5138,7 +5183,7 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="3"/>
+      <c r="A24" s="4"/>
       <c r="C24" t="s">
         <v>626</v>
       </c>
@@ -5147,7 +5192,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="3"/>
+      <c r="A25" s="4"/>
       <c r="B25" t="s">
         <v>577</v>
       </c>
@@ -5159,7 +5204,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="3"/>
+      <c r="A26" s="4"/>
       <c r="B26" t="s">
         <v>578</v>
       </c>
@@ -5174,7 +5219,7 @@
       <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>579</v>
       </c>
       <c r="B28" t="s">
@@ -5188,39 +5233,39 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="3"/>
+      <c r="A29" s="4"/>
       <c r="B29" t="s">
         <v>507</v>
       </c>
       <c r="C29" t="s">
         <v>528</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="4" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="3"/>
+      <c r="A30" s="4"/>
       <c r="B30" t="s">
         <v>508</v>
       </c>
       <c r="C30" t="s">
         <v>529</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="3"/>
+      <c r="A31" s="4"/>
       <c r="B31" t="s">
         <v>509</v>
       </c>
       <c r="C31" t="s">
         <v>530</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="3"/>
+      <c r="A32" s="4"/>
       <c r="C32" t="s">
         <v>595</v>
       </c>
@@ -5229,7 +5274,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="3"/>
+      <c r="A33" s="4"/>
       <c r="C33" t="s">
         <v>628</v>
       </c>
@@ -5238,7 +5283,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="3"/>
+      <c r="A34" s="4"/>
       <c r="B34" t="s">
         <v>586</v>
       </c>
@@ -5250,7 +5295,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="3"/>
+      <c r="A35" s="4"/>
       <c r="B35" t="s">
         <v>587</v>
       </c>
@@ -5265,7 +5310,7 @@
       <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>580</v>
       </c>
       <c r="B37" t="s">
@@ -5279,39 +5324,39 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="3"/>
+      <c r="A38" s="4"/>
       <c r="B38" t="s">
         <v>512</v>
       </c>
       <c r="C38" t="s">
         <v>531</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="3"/>
+      <c r="A39" s="4"/>
       <c r="B39" t="s">
         <v>513</v>
       </c>
       <c r="C39" t="s">
         <v>532</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="3"/>
+      <c r="A40" s="4"/>
       <c r="B40" t="s">
         <v>514</v>
       </c>
       <c r="C40" t="s">
         <v>533</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="3"/>
+      <c r="A41" s="4"/>
       <c r="C41" t="s">
         <v>597</v>
       </c>
@@ -5320,7 +5365,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="3"/>
+      <c r="A42" s="4"/>
       <c r="C42" t="s">
         <v>630</v>
       </c>
@@ -5329,7 +5374,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="3"/>
+      <c r="A43" s="4"/>
       <c r="B43" t="s">
         <v>582</v>
       </c>
@@ -5341,7 +5386,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="3"/>
+      <c r="A44" s="4"/>
       <c r="B44" t="s">
         <v>583</v>
       </c>
@@ -5356,7 +5401,7 @@
       <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B46" t="s">
@@ -5370,39 +5415,39 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="3"/>
+      <c r="A47" s="4"/>
       <c r="B47" t="s">
         <v>517</v>
       </c>
       <c r="C47" t="s">
         <v>534</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="4" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="3"/>
+      <c r="A48" s="4"/>
       <c r="B48" t="s">
         <v>518</v>
       </c>
       <c r="C48" t="s">
         <v>535</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="3"/>
+      <c r="A49" s="4"/>
       <c r="B49" t="s">
         <v>519</v>
       </c>
       <c r="C49" t="s">
         <v>536</v>
       </c>
-      <c r="D49" s="3"/>
+      <c r="D49" s="4"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="3"/>
+      <c r="A50" s="4"/>
       <c r="C50" t="s">
         <v>599</v>
       </c>
@@ -5411,7 +5456,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="3"/>
+      <c r="A51" s="4"/>
       <c r="C51" t="s">
         <v>632</v>
       </c>
@@ -5420,7 +5465,7 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="3"/>
+      <c r="A52" s="4"/>
       <c r="B52" t="s">
         <v>584</v>
       </c>
@@ -5432,7 +5477,7 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="3"/>
+      <c r="A53" s="4"/>
       <c r="B53" t="s">
         <v>585</v>
       </c>
@@ -5444,7 +5489,7 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>601</v>
       </c>
       <c r="B55" t="s">
@@ -5458,29 +5503,29 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="3"/>
+      <c r="A56" s="4"/>
       <c r="B56" t="s">
         <v>605</v>
       </c>
       <c r="C56" t="s">
         <v>606</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="4" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="3"/>
+      <c r="A57" s="4"/>
       <c r="B57" t="s">
         <v>607</v>
       </c>
       <c r="C57" t="s">
         <v>608</v>
       </c>
-      <c r="D57" s="3"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="3"/>
+      <c r="A58" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5506,18 +5551,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144:B144"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="65.75" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="83.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6555,5 +6600,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>